--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>Invoice ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>ascendas</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="15" customWidth="1"/>
@@ -582,6 +585,141 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
   <si>
     <t>Invoice ID</t>
   </si>
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="15" customWidth="1"/>
@@ -720,6 +720,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
